--- a/admin/media/data/Guruhlar.xlsx
+++ b/admin/media/data/Guruhlar.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3498" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3498" uniqueCount="513">
   <si>
     <t>Fakultet</t>
   </si>
@@ -1237,6 +1237,294 @@
     <t>Ichki kasalliklar terapiya-24</t>
   </si>
   <si>
+    <t xml:space="preserve">Kardiologiya </t>
+  </si>
+  <si>
+    <t>Kardiologiya -24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laboratoria ishi </t>
+  </si>
+  <si>
+    <t>Laboratoria ishi -24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mehnat gigiyenasi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mehnat gigiyenasi-24 </t>
+  </si>
+  <si>
+    <t>Narkologiya</t>
+  </si>
+  <si>
+    <t>Narkologiya-24</t>
+  </si>
+  <si>
+    <t>Nefrologiya gemodializ bilan</t>
+  </si>
+  <si>
+    <t>Nefrologiya gemodializ bilan-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neonatologiya </t>
+  </si>
+  <si>
+    <t>Neonatologiya-24</t>
+  </si>
+  <si>
+    <t>Nevrologiya</t>
+  </si>
+  <si>
+    <t>Nevrologiya-24</t>
+  </si>
+  <si>
+    <t>Neyroxirurgiya</t>
+  </si>
+  <si>
+    <t>Neyroxirurgiya-24</t>
+  </si>
+  <si>
+    <t>Nutrisiologiya</t>
+  </si>
+  <si>
+    <t>Nutrisiologiya-24</t>
+  </si>
+  <si>
+    <t>Oftamologiya</t>
+  </si>
+  <si>
+    <t>Oftamologiya-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Otorinolaringologiya </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Otorinolaringologiya-24 </t>
+  </si>
+  <si>
+    <t>Patologik anatomiya-24</t>
+  </si>
+  <si>
+    <t>Psixiatriya</t>
+  </si>
+  <si>
+    <t>Psixiatriya-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pulmonologiya </t>
+  </si>
+  <si>
+    <t>Pulmonologiya -24</t>
+  </si>
+  <si>
+    <t>Revmatologiya</t>
+  </si>
+  <si>
+    <t>Revmatologiya-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stomatologiya </t>
+  </si>
+  <si>
+    <t>Stomatologiya-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Terapevtik stomatologiya </t>
+  </si>
+  <si>
+    <t>Terapevtik stomatologiya -24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Terapiya </t>
+  </si>
+  <si>
+    <t>Terapiya-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tibbiy psixologiya </t>
+  </si>
+  <si>
+    <t>Tibbiy psixologiya -24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Travmatologiya va ortopediya </t>
+  </si>
+  <si>
+    <t>Travmatologiya va ortopediya-24</t>
+  </si>
+  <si>
+    <t>Tibbiy radiologiya</t>
+  </si>
+  <si>
+    <t>Tibbiy radiologiya-24</t>
+  </si>
+  <si>
+    <t>Umumiy onkologiya -24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Umumiy Xirurgiya  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Umumiy Xirurgiya -24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Urologiya </t>
+  </si>
+  <si>
+    <t>Urologiya -24</t>
+  </si>
+  <si>
+    <t>Yuqimli kasalliklar</t>
+  </si>
+  <si>
+    <t>Yuqimli kasalliklar-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yuz jag‘ jarroxligi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yuz jag‘ jarroxligi-24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kommunal gigiena </t>
+  </si>
+  <si>
+    <t>Kommunal gigiena -24</t>
+  </si>
+  <si>
+    <t>Akusherlik va ginekologiya-23</t>
+  </si>
+  <si>
+    <t>Allergologiya-23</t>
+  </si>
+  <si>
+    <t>Anesteziologiya-23</t>
+  </si>
+  <si>
+    <t>Bolalar anesteziologiya-23</t>
+  </si>
+  <si>
+    <t>Bolalar kardiorevmatalogiyasi -23</t>
+  </si>
+  <si>
+    <t>Bolalar  nefrologiyasi-23</t>
+  </si>
+  <si>
+    <t>Bolalar  nevrologiyasi -23</t>
+  </si>
+  <si>
+    <t>Bolalar va o‘smir qizlar-23</t>
+  </si>
+  <si>
+    <t>Bolalar xirurgiyasi-23</t>
+  </si>
+  <si>
+    <t>Dermatoveneralogiya -23</t>
+  </si>
+  <si>
+    <t>Epidemiologiya -23</t>
+  </si>
+  <si>
+    <t>Ftiziatriya -23</t>
+  </si>
+  <si>
+    <t>Gigiyena-23</t>
+  </si>
+  <si>
+    <t>Ichki kasalliklar terapiya-23</t>
+  </si>
+  <si>
+    <t>Kardiologiya -23</t>
+  </si>
+  <si>
+    <t>Laboratoria ishi -23</t>
+  </si>
+  <si>
+    <t>Mehnat gigiyenasi-23</t>
+  </si>
+  <si>
+    <t>Narkologiya-23</t>
+  </si>
+  <si>
+    <t>Nefrologiya gemodializ bilan-23</t>
+  </si>
+  <si>
+    <t>Neonatologiya-23</t>
+  </si>
+  <si>
+    <t>Nevrologiya-23</t>
+  </si>
+  <si>
+    <t>Neyroxirurgiya-23</t>
+  </si>
+  <si>
+    <t>Nutrisiologiya-23</t>
+  </si>
+  <si>
+    <t>Oftamologiya-23</t>
+  </si>
+  <si>
+    <t>Otorinolaringologiya-23</t>
+  </si>
+  <si>
+    <t>Patologik anatomiya-23</t>
+  </si>
+  <si>
+    <t>Pediatriya-23</t>
+  </si>
+  <si>
+    <t>Psixiatriya-23</t>
+  </si>
+  <si>
+    <t>Pulmonologiya -23</t>
+  </si>
+  <si>
+    <t>Revmatologiya-23</t>
+  </si>
+  <si>
+    <t>Stomatologiya-23</t>
+  </si>
+  <si>
+    <t>Terapevtik stomatologiya -23</t>
+  </si>
+  <si>
+    <t>Terapiya -23</t>
+  </si>
+  <si>
+    <t>Tibbiy psixologiya -23</t>
+  </si>
+  <si>
+    <t>Travmatologiya va ortopediya-23</t>
+  </si>
+  <si>
+    <t>Tibbiy radiologiya-23</t>
+  </si>
+  <si>
+    <t>Umumiy onkologiya -23</t>
+  </si>
+  <si>
+    <t>Umumiy Xirurgiya -23</t>
+  </si>
+  <si>
+    <t>Urologiya -23</t>
+  </si>
+  <si>
+    <t>Yuqimli kasalliklar-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yuz jag‘ jarroxligi-23 </t>
+  </si>
+  <si>
+    <t>Kommunal gigiena</t>
+  </si>
+  <si>
+    <t>Kommunal gigiena-23</t>
+  </si>
+  <si>
+    <t>Neyroxirurgiya-22</t>
+  </si>
+  <si>
     <t xml:space="preserve">Kadiologiya </t>
   </si>
   <si>
@@ -1255,189 +1543,12 @@
     <t xml:space="preserve">Mexnat gigiyenasi-24 </t>
   </si>
   <si>
-    <t>Narkologiya</t>
-  </si>
-  <si>
-    <t>Narkologiya-24</t>
-  </si>
-  <si>
-    <t>Nefrologiya gemodializ bilan</t>
-  </si>
-  <si>
-    <t>Nefrologiya gemodializ bilan-24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Neonatologiya </t>
-  </si>
-  <si>
-    <t>Neonatologiya-24</t>
-  </si>
-  <si>
-    <t>Nevrologiya</t>
-  </si>
-  <si>
-    <t>Nevrologiya-24</t>
-  </si>
-  <si>
-    <t>Neyroxirurgiya</t>
-  </si>
-  <si>
-    <t>Neyroxirurgiya-24</t>
-  </si>
-  <si>
-    <t>Nutrisiologiya</t>
-  </si>
-  <si>
-    <t>Nutrisiologiya-24</t>
-  </si>
-  <si>
-    <t>Oftamologiya</t>
-  </si>
-  <si>
-    <t>Oftamologiya-24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Otorinolaringologiya </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Otorinolaringologiya-24 </t>
-  </si>
-  <si>
     <t xml:space="preserve">Patologik anatomiya </t>
   </si>
   <si>
     <t>Patologik anatomiya -24</t>
   </si>
   <si>
-    <t>Psixiatriya</t>
-  </si>
-  <si>
-    <t>Psixiatriya-24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pulmonologiya </t>
-  </si>
-  <si>
-    <t>Pulmonologiya -24</t>
-  </si>
-  <si>
-    <t>Revmatologiya</t>
-  </si>
-  <si>
-    <t>Revmatologiya-24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stomatologiya </t>
-  </si>
-  <si>
-    <t>Stomatologiya-24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Terapevtik stomatologiya </t>
-  </si>
-  <si>
-    <t>Terapevtik stomatologiya -24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Terapiya </t>
-  </si>
-  <si>
-    <t>Terapiya-24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tibbiy psixologiya </t>
-  </si>
-  <si>
-    <t>Tibbiy psixologiya -24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Travmatologiya va ortopediya </t>
-  </si>
-  <si>
-    <t>Travmatologiya va ortopediya-24</t>
-  </si>
-  <si>
-    <t>Tibbiy radiologiya</t>
-  </si>
-  <si>
-    <t>Tibbiy radiologiya-24</t>
-  </si>
-  <si>
-    <t>Umumiy onkologiya -24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Umumiy Xirurgiya  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Umumiy Xirurgiya -24 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Urologiya </t>
-  </si>
-  <si>
-    <t>Urologiya -24</t>
-  </si>
-  <si>
-    <t>Yuqimli kasalliklar</t>
-  </si>
-  <si>
-    <t>Yuqimli kasalliklar-24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yuz jag‘ jarroxligi </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yuz jag‘ jarroxligi-24 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kommunal gigiena </t>
-  </si>
-  <si>
-    <t>Kommunal gigiena -24</t>
-  </si>
-  <si>
-    <t>Akusherlik va ginekologiya-23</t>
-  </si>
-  <si>
-    <t>Allergologiya-23</t>
-  </si>
-  <si>
-    <t>Anesteziologiya-23</t>
-  </si>
-  <si>
-    <t>Bolalar anesteziologiya-23</t>
-  </si>
-  <si>
-    <t>Bolalar kardiorevmatalogiyasi -23</t>
-  </si>
-  <si>
-    <t>Bolalar  nefrologiyasi-23</t>
-  </si>
-  <si>
-    <t>Bolalar  nevrologiyasi -23</t>
-  </si>
-  <si>
-    <t>Bolalar va o‘smir qizlar-23</t>
-  </si>
-  <si>
-    <t>Bolalar xirurgiyasi-23</t>
-  </si>
-  <si>
-    <t>Dermatoveneralogiya -23</t>
-  </si>
-  <si>
-    <t>Epidemiologiya -23</t>
-  </si>
-  <si>
-    <t>Ftiziatriya -23</t>
-  </si>
-  <si>
-    <t>Gigiyena-23</t>
-  </si>
-  <si>
-    <t>Ichki kasalliklar terapiya-23</t>
-  </si>
-  <si>
     <t>Kadiologiya -23</t>
   </si>
   <si>
@@ -1447,85 +1558,7 @@
     <t>Mexnat gigiyenasi-23</t>
   </si>
   <si>
-    <t>Narkologiya-23</t>
-  </si>
-  <si>
-    <t>Nefrologiya gemodializ bilan-23</t>
-  </si>
-  <si>
-    <t>Neonatologiya-23</t>
-  </si>
-  <si>
-    <t>Nevrologiya-23</t>
-  </si>
-  <si>
-    <t>Neyroxirurgiya-23</t>
-  </si>
-  <si>
-    <t>Nutrisiologiya-23</t>
-  </si>
-  <si>
-    <t>Oftamologiya-23</t>
-  </si>
-  <si>
-    <t>Otorinolaringologiya-23</t>
-  </si>
-  <si>
     <t>Patologik anatomiya -23</t>
-  </si>
-  <si>
-    <t>Pediatriya-23</t>
-  </si>
-  <si>
-    <t>Psixiatriya-23</t>
-  </si>
-  <si>
-    <t>Pulmonologiya -23</t>
-  </si>
-  <si>
-    <t>Revmatologiya-23</t>
-  </si>
-  <si>
-    <t>Stomatologiya-23</t>
-  </si>
-  <si>
-    <t>Terapevtik stomatologiya -23</t>
-  </si>
-  <si>
-    <t>Terapiya -23</t>
-  </si>
-  <si>
-    <t>Tibbiy psixologiya -23</t>
-  </si>
-  <si>
-    <t>Travmatologiya va ortopediya-23</t>
-  </si>
-  <si>
-    <t>Tibbiy radiologiya-23</t>
-  </si>
-  <si>
-    <t>Umumiy onkologiya -23</t>
-  </si>
-  <si>
-    <t>Umumiy Xirurgiya -23</t>
-  </si>
-  <si>
-    <t>Urologiya -23</t>
-  </si>
-  <si>
-    <t>Yuqimli kasalliklar-23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yuz jag‘ jarroxligi-23 </t>
-  </si>
-  <si>
-    <t>Kommunal gigiena</t>
-  </si>
-  <si>
-    <t>Kommunal gigiena-23</t>
-  </si>
-  <si>
-    <t>Neyroxirurgiya-22</t>
   </si>
 </sst>
 </file>
@@ -2841,8 +2874,8 @@
   <sheetPr/>
   <dimension ref="A1:E506"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A377" workbookViewId="0">
-      <selection activeCell="C497" sqref="C497"/>
+    <sheetView tabSelected="1" topLeftCell="A436" workbookViewId="0">
+      <selection activeCell="C436" sqref="C436"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -10427,13 +10460,13 @@
         <v>377</v>
       </c>
       <c r="C446" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="D446" s="2">
+        <v>1</v>
+      </c>
+      <c r="E446" s="52" t="s">
         <v>427</v>
-      </c>
-      <c r="D446" s="2">
-        <v>1</v>
-      </c>
-      <c r="E446" s="52" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="447" ht="18" spans="1:5">
@@ -10461,13 +10494,13 @@
         <v>377</v>
       </c>
       <c r="C448" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="D448" s="2">
+        <v>1</v>
+      </c>
+      <c r="E448" s="52" t="s">
         <v>429</v>
-      </c>
-      <c r="D448" s="2">
-        <v>1</v>
-      </c>
-      <c r="E448" s="52" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="449" ht="18" spans="1:5">
@@ -10478,13 +10511,13 @@
         <v>377</v>
       </c>
       <c r="C449" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="D449" s="2">
+        <v>1</v>
+      </c>
+      <c r="E449" s="52" t="s">
         <v>431</v>
-      </c>
-      <c r="D449" s="2">
-        <v>1</v>
-      </c>
-      <c r="E449" s="52" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="450" ht="18" spans="1:5">
@@ -10495,13 +10528,13 @@
         <v>377</v>
       </c>
       <c r="C450" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="D450" s="2">
+        <v>1</v>
+      </c>
+      <c r="E450" s="52" t="s">
         <v>433</v>
-      </c>
-      <c r="D450" s="2">
-        <v>1</v>
-      </c>
-      <c r="E450" s="52" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="451" ht="18" spans="1:5">
@@ -10512,13 +10545,13 @@
         <v>377</v>
       </c>
       <c r="C451" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="D451" s="2">
+        <v>1</v>
+      </c>
+      <c r="E451" s="51" t="s">
         <v>435</v>
-      </c>
-      <c r="D451" s="2">
-        <v>1</v>
-      </c>
-      <c r="E451" s="51" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="452" ht="18" spans="1:5">
@@ -10529,13 +10562,13 @@
         <v>377</v>
       </c>
       <c r="C452" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="D452" s="2">
+        <v>1</v>
+      </c>
+      <c r="E452" s="52" t="s">
         <v>437</v>
-      </c>
-      <c r="D452" s="2">
-        <v>1</v>
-      </c>
-      <c r="E452" s="52" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="453" ht="18" spans="1:5">
@@ -10546,13 +10579,13 @@
         <v>377</v>
       </c>
       <c r="C453" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="D453" s="2">
+        <v>1</v>
+      </c>
+      <c r="E453" s="52" t="s">
         <v>439</v>
-      </c>
-      <c r="D453" s="2">
-        <v>1</v>
-      </c>
-      <c r="E453" s="52" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="454" ht="18" spans="1:5">
@@ -10563,13 +10596,13 @@
         <v>377</v>
       </c>
       <c r="C454" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="D454" s="2">
+        <v>1</v>
+      </c>
+      <c r="E454" s="52" t="s">
         <v>441</v>
-      </c>
-      <c r="D454" s="2">
-        <v>1</v>
-      </c>
-      <c r="E454" s="52" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="455" ht="18" spans="1:5">
@@ -10580,13 +10613,13 @@
         <v>377</v>
       </c>
       <c r="C455" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="D455" s="2">
+        <v>1</v>
+      </c>
+      <c r="E455" s="52" t="s">
         <v>443</v>
-      </c>
-      <c r="D455" s="2">
-        <v>1</v>
-      </c>
-      <c r="E455" s="52" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="456" ht="18" spans="1:5">
@@ -10597,13 +10630,13 @@
         <v>377</v>
       </c>
       <c r="C456" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="D456" s="2">
+        <v>1</v>
+      </c>
+      <c r="E456" s="52" t="s">
         <v>445</v>
-      </c>
-      <c r="D456" s="2">
-        <v>1</v>
-      </c>
-      <c r="E456" s="52" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="457" ht="18" spans="1:5">
@@ -10620,7 +10653,7 @@
         <v>1</v>
       </c>
       <c r="E457" s="52" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="458" ht="18" spans="1:5">
@@ -10631,13 +10664,13 @@
         <v>377</v>
       </c>
       <c r="C458" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="D458" s="2">
+        <v>1</v>
+      </c>
+      <c r="E458" s="52" t="s">
         <v>448</v>
-      </c>
-      <c r="D458" s="2">
-        <v>1</v>
-      </c>
-      <c r="E458" s="52" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="459" ht="18" spans="1:5">
@@ -10648,13 +10681,13 @@
         <v>377</v>
       </c>
       <c r="C459" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="D459" s="2">
+        <v>1</v>
+      </c>
+      <c r="E459" s="52" t="s">
         <v>450</v>
-      </c>
-      <c r="D459" s="2">
-        <v>1</v>
-      </c>
-      <c r="E459" s="52" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="460" ht="18" spans="1:5">
@@ -10665,13 +10698,13 @@
         <v>377</v>
       </c>
       <c r="C460" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="D460" s="2">
+        <v>1</v>
+      </c>
+      <c r="E460" s="52" t="s">
         <v>452</v>
-      </c>
-      <c r="D460" s="2">
-        <v>1</v>
-      </c>
-      <c r="E460" s="52" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="461" ht="18" spans="1:5">
@@ -10682,13 +10715,13 @@
         <v>377</v>
       </c>
       <c r="C461" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="D461" s="2">
+        <v>1</v>
+      </c>
+      <c r="E461" s="52" t="s">
         <v>454</v>
-      </c>
-      <c r="D461" s="2">
-        <v>1</v>
-      </c>
-      <c r="E461" s="52" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="462" ht="18" spans="1:5">
@@ -10699,13 +10732,13 @@
         <v>377</v>
       </c>
       <c r="C462" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="D462" s="2">
+        <v>1</v>
+      </c>
+      <c r="E462" s="51" t="s">
         <v>456</v>
-      </c>
-      <c r="D462" s="2">
-        <v>1</v>
-      </c>
-      <c r="E462" s="51" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="463" ht="18" spans="1:5">
@@ -10722,7 +10755,7 @@
         <v>2</v>
       </c>
       <c r="E463" s="50" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="464" ht="18" spans="1:5">
@@ -10739,7 +10772,7 @@
         <v>2</v>
       </c>
       <c r="E464" s="50" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="465" ht="18" spans="1:5">
@@ -10756,7 +10789,7 @@
         <v>2</v>
       </c>
       <c r="E465" s="50" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="466" ht="18" spans="1:5">
@@ -10773,7 +10806,7 @@
         <v>2</v>
       </c>
       <c r="E466" s="51" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="467" ht="18" spans="1:5">
@@ -10790,7 +10823,7 @@
         <v>2</v>
       </c>
       <c r="E467" s="50" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="468" ht="18" spans="1:5">
@@ -10807,7 +10840,7 @@
         <v>2</v>
       </c>
       <c r="E468" s="51" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="469" ht="18" spans="1:5">
@@ -10824,7 +10857,7 @@
         <v>2</v>
       </c>
       <c r="E469" s="51" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="470" ht="18" spans="1:5">
@@ -10841,7 +10874,7 @@
         <v>2</v>
       </c>
       <c r="E470" s="51" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="471" ht="18" spans="1:5">
@@ -10858,7 +10891,7 @@
         <v>2</v>
       </c>
       <c r="E471" s="52" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="472" ht="18" spans="1:5">
@@ -10875,7 +10908,7 @@
         <v>2</v>
       </c>
       <c r="E472" s="50" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="473" ht="18" spans="1:5">
@@ -10909,7 +10942,7 @@
         <v>2</v>
       </c>
       <c r="E474" s="50" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="475" ht="18" spans="1:5">
@@ -10926,7 +10959,7 @@
         <v>2</v>
       </c>
       <c r="E475" s="50" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="476" ht="18" spans="1:5">
@@ -10943,7 +10976,7 @@
         <v>2</v>
       </c>
       <c r="E476" s="50" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="477" ht="18" spans="1:5">
@@ -10960,7 +10993,7 @@
         <v>2</v>
       </c>
       <c r="E477" s="51" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="478" ht="18" spans="1:5">
@@ -10977,7 +11010,7 @@
         <v>2</v>
       </c>
       <c r="E478" s="50" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="479" ht="18" spans="1:5">
@@ -10994,7 +11027,7 @@
         <v>2</v>
       </c>
       <c r="E479" s="52" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="480" ht="18" spans="1:5">
@@ -11011,7 +11044,7 @@
         <v>2</v>
       </c>
       <c r="E480" s="52" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="481" ht="18" spans="1:5">
@@ -11028,7 +11061,7 @@
         <v>2</v>
       </c>
       <c r="E481" s="52" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="482" ht="18" spans="1:5">
@@ -11045,7 +11078,7 @@
         <v>2</v>
       </c>
       <c r="E482" s="51" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="483" ht="18" spans="1:5">
@@ -11062,7 +11095,7 @@
         <v>2</v>
       </c>
       <c r="E483" s="52" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="484" ht="18" spans="1:5">
@@ -11079,7 +11112,7 @@
         <v>2</v>
       </c>
       <c r="E484" s="52" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="485" ht="18" spans="1:5">
@@ -11096,7 +11129,7 @@
         <v>2</v>
       </c>
       <c r="E485" s="51" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="486" ht="18" spans="1:5">
@@ -11113,7 +11146,7 @@
         <v>2</v>
       </c>
       <c r="E486" s="51" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="487" ht="18" spans="1:5">
@@ -11130,7 +11163,7 @@
         <v>2</v>
       </c>
       <c r="E487" s="52" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="488" ht="18" spans="1:5">
@@ -11147,7 +11180,7 @@
         <v>2</v>
       </c>
       <c r="E488" s="52" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="489" ht="18" spans="1:5">
@@ -11158,13 +11191,13 @@
         <v>377</v>
       </c>
       <c r="C489" s="2" t="s">
-        <v>427</v>
+        <v>363</v>
       </c>
       <c r="D489" s="2">
         <v>2</v>
       </c>
       <c r="E489" s="52" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="490" ht="18" spans="1:5">
@@ -11181,7 +11214,7 @@
         <v>2</v>
       </c>
       <c r="E490" s="52" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="491" ht="18" spans="1:5">
@@ -11192,13 +11225,13 @@
         <v>377</v>
       </c>
       <c r="C491" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D491" s="2">
         <v>2</v>
       </c>
       <c r="E491" s="52" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="492" ht="18" spans="1:5">
@@ -11209,13 +11242,13 @@
         <v>377</v>
       </c>
       <c r="C492" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D492" s="2">
         <v>2</v>
       </c>
       <c r="E492" s="52" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="493" ht="18" spans="1:5">
@@ -11226,13 +11259,13 @@
         <v>377</v>
       </c>
       <c r="C493" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D493" s="2">
         <v>2</v>
       </c>
       <c r="E493" s="52" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="494" ht="18" spans="1:5">
@@ -11243,13 +11276,13 @@
         <v>377</v>
       </c>
       <c r="C494" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D494" s="2">
         <v>2</v>
       </c>
       <c r="E494" s="51" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="495" ht="18" spans="1:5">
@@ -11260,13 +11293,13 @@
         <v>377</v>
       </c>
       <c r="C495" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D495" s="2">
         <v>2</v>
       </c>
       <c r="E495" s="52" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="496" ht="18" spans="1:5">
@@ -11277,13 +11310,13 @@
         <v>377</v>
       </c>
       <c r="C496" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D496" s="2">
         <v>2</v>
       </c>
       <c r="E496" s="51" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="497" ht="18" spans="1:5">
@@ -11294,13 +11327,13 @@
         <v>377</v>
       </c>
       <c r="C497" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D497" s="2">
         <v>2</v>
       </c>
       <c r="E497" s="51" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="498" ht="18" spans="1:5">
@@ -11311,13 +11344,13 @@
         <v>377</v>
       </c>
       <c r="C498" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D498" s="2">
         <v>2</v>
       </c>
       <c r="E498" s="52" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="499" ht="18" spans="1:5">
@@ -11328,13 +11361,13 @@
         <v>377</v>
       </c>
       <c r="C499" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D499" s="2">
         <v>2</v>
       </c>
       <c r="E499" s="52" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="500" ht="18" spans="1:5">
@@ -11351,7 +11384,7 @@
         <v>2</v>
       </c>
       <c r="E500" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="501" ht="18" spans="1:5">
@@ -11362,13 +11395,13 @@
         <v>377</v>
       </c>
       <c r="C501" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D501" s="2">
         <v>2</v>
       </c>
       <c r="E501" s="52" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="502" ht="18" spans="1:5">
@@ -11379,13 +11412,13 @@
         <v>377</v>
       </c>
       <c r="C502" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D502" s="2">
         <v>2</v>
       </c>
       <c r="E502" s="52" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="503" ht="18" spans="1:5">
@@ -11396,13 +11429,13 @@
         <v>377</v>
       </c>
       <c r="C503" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D503" s="2">
         <v>2</v>
       </c>
       <c r="E503" s="51" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="504" ht="18" spans="1:5">
@@ -11413,13 +11446,13 @@
         <v>377</v>
       </c>
       <c r="C504" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D504" s="2">
         <v>2</v>
       </c>
       <c r="E504" s="52" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="505" ht="18" spans="1:5">
@@ -11430,13 +11463,13 @@
         <v>377</v>
       </c>
       <c r="C505" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="D505" s="2">
+        <v>2</v>
+      </c>
+      <c r="E505" s="54" t="s">
         <v>499</v>
-      </c>
-      <c r="D505" s="2">
-        <v>2</v>
-      </c>
-      <c r="E505" s="54" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="506" ht="18.75" spans="1:5">
@@ -11453,7 +11486,7 @@
         <v>3</v>
       </c>
       <c r="E506" s="55" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
   </sheetData>
@@ -17980,13 +18013,13 @@
         <v>377</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>405</v>
+        <v>501</v>
       </c>
       <c r="C17" s="2">
         <v>1</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>406</v>
+        <v>502</v>
       </c>
     </row>
     <row r="18" ht="18" spans="1:4">
@@ -17994,13 +18027,13 @@
         <v>377</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>407</v>
+        <v>503</v>
       </c>
       <c r="C18" s="2">
         <v>1</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>408</v>
+        <v>504</v>
       </c>
     </row>
     <row r="19" ht="18" spans="1:4">
@@ -18008,13 +18041,13 @@
         <v>377</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>409</v>
+        <v>505</v>
       </c>
       <c r="C19" s="2">
         <v>1</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>410</v>
+        <v>506</v>
       </c>
     </row>
     <row r="20" ht="18" spans="1:4">
@@ -18134,13 +18167,13 @@
         <v>377</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>427</v>
+        <v>507</v>
       </c>
       <c r="C28" s="2">
         <v>1</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>428</v>
+        <v>508</v>
       </c>
     </row>
     <row r="29" ht="18" spans="1:4">
@@ -18162,13 +18195,13 @@
         <v>377</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="C30" s="2">
+        <v>1</v>
+      </c>
+      <c r="D30" s="4" t="s">
         <v>429</v>
-      </c>
-      <c r="C30" s="2">
-        <v>1</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="31" ht="18" spans="1:4">
@@ -18176,13 +18209,13 @@
         <v>377</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="C31" s="2">
+        <v>1</v>
+      </c>
+      <c r="D31" s="4" t="s">
         <v>431</v>
-      </c>
-      <c r="C31" s="2">
-        <v>1</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="32" ht="18" spans="1:4">
@@ -18190,13 +18223,13 @@
         <v>377</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="C32" s="2">
+        <v>1</v>
+      </c>
+      <c r="D32" s="4" t="s">
         <v>433</v>
-      </c>
-      <c r="C32" s="2">
-        <v>1</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="33" ht="18" spans="1:4">
@@ -18204,13 +18237,13 @@
         <v>377</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="C33" s="2">
+        <v>1</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>435</v>
-      </c>
-      <c r="C33" s="2">
-        <v>1</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="34" ht="18" spans="1:4">
@@ -18218,13 +18251,13 @@
         <v>377</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="C34" s="2">
+        <v>1</v>
+      </c>
+      <c r="D34" s="4" t="s">
         <v>437</v>
-      </c>
-      <c r="C34" s="2">
-        <v>1</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="35" ht="18" spans="1:4">
@@ -18232,13 +18265,13 @@
         <v>377</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="C35" s="2">
+        <v>1</v>
+      </c>
+      <c r="D35" s="4" t="s">
         <v>439</v>
-      </c>
-      <c r="C35" s="2">
-        <v>1</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="36" ht="18" spans="1:4">
@@ -18246,13 +18279,13 @@
         <v>377</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="C36" s="2">
+        <v>1</v>
+      </c>
+      <c r="D36" s="4" t="s">
         <v>441</v>
-      </c>
-      <c r="C36" s="2">
-        <v>1</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="37" ht="18" spans="1:4">
@@ -18260,13 +18293,13 @@
         <v>377</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="C37" s="2">
+        <v>1</v>
+      </c>
+      <c r="D37" s="4" t="s">
         <v>443</v>
-      </c>
-      <c r="C37" s="2">
-        <v>1</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="38" ht="18" spans="1:4">
@@ -18274,13 +18307,13 @@
         <v>377</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="C38" s="2">
+        <v>1</v>
+      </c>
+      <c r="D38" s="4" t="s">
         <v>445</v>
-      </c>
-      <c r="C38" s="2">
-        <v>1</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="39" ht="18" spans="1:4">
@@ -18294,7 +18327,7 @@
         <v>1</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="40" ht="18" spans="1:4">
@@ -18302,13 +18335,13 @@
         <v>377</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="C40" s="2">
+        <v>1</v>
+      </c>
+      <c r="D40" s="4" t="s">
         <v>448</v>
-      </c>
-      <c r="C40" s="2">
-        <v>1</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="41" ht="18" spans="1:4">
@@ -18316,13 +18349,13 @@
         <v>377</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="C41" s="2">
+        <v>1</v>
+      </c>
+      <c r="D41" s="4" t="s">
         <v>450</v>
-      </c>
-      <c r="C41" s="2">
-        <v>1</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="42" ht="18" spans="1:4">
@@ -18330,13 +18363,13 @@
         <v>377</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="C42" s="2">
+        <v>1</v>
+      </c>
+      <c r="D42" s="4" t="s">
         <v>452</v>
-      </c>
-      <c r="C42" s="2">
-        <v>1</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="43" ht="18" spans="1:4">
@@ -18344,13 +18377,13 @@
         <v>377</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="C43" s="2">
+        <v>1</v>
+      </c>
+      <c r="D43" s="4" t="s">
         <v>454</v>
-      </c>
-      <c r="C43" s="2">
-        <v>1</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="44" ht="18" spans="1:4">
@@ -18358,13 +18391,13 @@
         <v>377</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="C44" s="2">
+        <v>1</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>456</v>
-      </c>
-      <c r="C44" s="2">
-        <v>1</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="45" ht="18" spans="1:4">
@@ -18378,7 +18411,7 @@
         <v>2</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="46" ht="18" spans="1:4">
@@ -18392,7 +18425,7 @@
         <v>2</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="47" ht="18" spans="1:4">
@@ -18406,7 +18439,7 @@
         <v>2</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="48" ht="18" spans="1:4">
@@ -18420,7 +18453,7 @@
         <v>2</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="49" ht="18" spans="1:4">
@@ -18434,7 +18467,7 @@
         <v>2</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="50" ht="18" spans="1:4">
@@ -18448,7 +18481,7 @@
         <v>2</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="51" ht="18" spans="1:4">
@@ -18462,7 +18495,7 @@
         <v>2</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="52" ht="18" spans="1:4">
@@ -18476,7 +18509,7 @@
         <v>2</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="53" ht="18" spans="1:4">
@@ -18490,7 +18523,7 @@
         <v>2</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="54" ht="18" spans="1:4">
@@ -18504,7 +18537,7 @@
         <v>2</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="55" ht="18" spans="1:4">
@@ -18532,7 +18565,7 @@
         <v>2</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="57" ht="18" spans="1:4">
@@ -18546,7 +18579,7 @@
         <v>2</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="58" ht="18" spans="1:4">
@@ -18560,7 +18593,7 @@
         <v>2</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="59" ht="18" spans="1:4">
@@ -18574,7 +18607,7 @@
         <v>2</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="60" ht="18" spans="1:4">
@@ -18582,13 +18615,13 @@
         <v>377</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>405</v>
+        <v>501</v>
       </c>
       <c r="C60" s="2">
         <v>2</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>472</v>
+        <v>509</v>
       </c>
     </row>
     <row r="61" ht="18" spans="1:4">
@@ -18596,13 +18629,13 @@
         <v>377</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>407</v>
+        <v>503</v>
       </c>
       <c r="C61" s="2">
         <v>2</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>473</v>
+        <v>510</v>
       </c>
     </row>
     <row r="62" ht="18" spans="1:4">
@@ -18610,13 +18643,13 @@
         <v>377</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>409</v>
+        <v>505</v>
       </c>
       <c r="C62" s="2">
         <v>2</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>474</v>
+        <v>511</v>
       </c>
     </row>
     <row r="63" ht="18" spans="1:4">
@@ -18630,7 +18663,7 @@
         <v>2</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="64" ht="18" spans="1:4">
@@ -18644,7 +18677,7 @@
         <v>2</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="65" ht="18" spans="1:4">
@@ -18658,7 +18691,7 @@
         <v>2</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="66" ht="18" spans="1:4">
@@ -18672,7 +18705,7 @@
         <v>2</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="67" ht="18" spans="1:4">
@@ -18686,7 +18719,7 @@
         <v>2</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="68" ht="18" spans="1:4">
@@ -18700,7 +18733,7 @@
         <v>2</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="69" ht="18" spans="1:4">
@@ -18714,7 +18747,7 @@
         <v>2</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="70" ht="18" spans="1:4">
@@ -18728,7 +18761,7 @@
         <v>2</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="71" ht="18" spans="1:4">
@@ -18736,13 +18769,13 @@
         <v>377</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>427</v>
+        <v>507</v>
       </c>
       <c r="C71" s="2">
         <v>2</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>483</v>
+        <v>512</v>
       </c>
     </row>
     <row r="72" ht="18" spans="1:4">
@@ -18756,7 +18789,7 @@
         <v>2</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="73" ht="18" spans="1:4">
@@ -18764,13 +18797,13 @@
         <v>377</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C73" s="2">
         <v>2</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="74" ht="18" spans="1:4">
@@ -18778,13 +18811,13 @@
         <v>377</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C74" s="2">
         <v>2</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="75" ht="18" spans="1:4">
@@ -18792,13 +18825,13 @@
         <v>377</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C75" s="2">
         <v>2</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="76" ht="18" spans="1:4">
@@ -18806,13 +18839,13 @@
         <v>377</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C76" s="2">
         <v>2</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="77" ht="18" spans="1:4">
@@ -18820,13 +18853,13 @@
         <v>377</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C77" s="2">
         <v>2</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="78" ht="18" spans="1:4">
@@ -18834,13 +18867,13 @@
         <v>377</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C78" s="2">
         <v>2</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="79" ht="18" spans="1:4">
@@ -18848,13 +18881,13 @@
         <v>377</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C79" s="2">
         <v>2</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="80" ht="18" spans="1:4">
@@ -18862,13 +18895,13 @@
         <v>377</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C80" s="2">
         <v>2</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="81" ht="18" spans="1:4">
@@ -18876,13 +18909,13 @@
         <v>377</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C81" s="2">
         <v>2</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="82" ht="18" spans="1:4">
@@ -18896,7 +18929,7 @@
         <v>2</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="83" ht="18" spans="1:4">
@@ -18904,13 +18937,13 @@
         <v>377</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C83" s="2">
         <v>2</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="84" ht="18" spans="1:4">
@@ -18918,13 +18951,13 @@
         <v>377</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C84" s="2">
         <v>2</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="85" ht="18" spans="1:4">
@@ -18932,13 +18965,13 @@
         <v>377</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C85" s="2">
         <v>2</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="86" ht="18" spans="1:4">
@@ -18946,13 +18979,13 @@
         <v>377</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C86" s="2">
         <v>2</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="87" ht="18" spans="1:4">
@@ -18960,13 +18993,13 @@
         <v>377</v>
       </c>
       <c r="B87" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C87" s="2">
+        <v>2</v>
+      </c>
+      <c r="D87" s="5" t="s">
         <v>499</v>
-      </c>
-      <c r="C87" s="2">
-        <v>2</v>
-      </c>
-      <c r="D87" s="5" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="88" ht="18" spans="1:4">
@@ -18980,7 +19013,7 @@
         <v>3</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
   </sheetData>

--- a/admin/media/data/Guruhlar.xlsx
+++ b/admin/media/data/Guruhlar.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3498" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3498" uniqueCount="515">
   <si>
     <t>Fakultet</t>
   </si>
@@ -1063,502 +1063,508 @@
     <t>Magistr</t>
   </si>
   <si>
+    <t>Gigiyena</t>
+  </si>
+  <si>
+    <t>Gigiyena-24</t>
+  </si>
+  <si>
+    <t>Morfologiya</t>
+  </si>
+  <si>
+    <t>Morfologiya-24</t>
+  </si>
+  <si>
+    <t>Morfologiya-23</t>
+  </si>
+  <si>
+    <t>Endokrinologiya</t>
+  </si>
+  <si>
+    <t>Endokrinologiya-24</t>
+  </si>
+  <si>
+    <t>Endokrinologiya-23</t>
+  </si>
+  <si>
+    <t>Akusherlik va ginekologiya</t>
+  </si>
+  <si>
+    <t>Akusherlik-23</t>
+  </si>
+  <si>
+    <t>Terapiya</t>
+  </si>
+  <si>
+    <t>Terapiya-23</t>
+  </si>
+  <si>
+    <t>Xirurgiya</t>
+  </si>
+  <si>
+    <t>Xirurgiya-22</t>
+  </si>
+  <si>
+    <t>Kardiologiya</t>
+  </si>
+  <si>
+    <t>Kardiologiya-24</t>
+  </si>
+  <si>
+    <t>Patologik anatomiya</t>
+  </si>
+  <si>
+    <t>Patan-23</t>
+  </si>
+  <si>
+    <t>Pediatriya-24</t>
+  </si>
+  <si>
+    <t>Rentgent texnikasi va texnologiyasi</t>
+  </si>
+  <si>
+    <t>Rentgent-24</t>
+  </si>
+  <si>
+    <t>Sog‘liqni saqlashni boshqarish va jamoat sog‘lig‘ini saqlash</t>
+  </si>
+  <si>
+    <t>Sog‘liqni saqlash-24</t>
+  </si>
+  <si>
+    <t>JSS-23</t>
+  </si>
+  <si>
+    <t>Tibbiy-biologik apparatlar, tizimlar va majmualar</t>
+  </si>
+  <si>
+    <t>Tibbiy-biologik apparatlar-24</t>
+  </si>
+  <si>
+    <t>Umumiy onkologiya</t>
+  </si>
+  <si>
+    <t>Onkologiya-23</t>
+  </si>
+  <si>
+    <t>Onkologiya-22 (kechki)</t>
+  </si>
+  <si>
+    <t>Ordinatura</t>
+  </si>
+  <si>
+    <t>Akusherlik va ginekologiya-24</t>
+  </si>
+  <si>
+    <t>Allergologiya va klinik immunologiya</t>
+  </si>
+  <si>
+    <t>Allergologiya-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anesteziologiya va reanimatologiya  </t>
+  </si>
+  <si>
+    <t>Anesteziologiya-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bolalar anesteziologiya va reanimatologiya </t>
+  </si>
+  <si>
+    <t>Bolalar anesteziologiya-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bolalar kardiorevmatalogiyasi </t>
+  </si>
+  <si>
+    <t>Bolalar kardiorevmatalogiyasi -24</t>
+  </si>
+  <si>
+    <t>Bolalar  nefrologiyasi</t>
+  </si>
+  <si>
+    <t>Bolalar  nefrologiyasi-24</t>
+  </si>
+  <si>
+    <t>Bolalar  nevrologiyasi</t>
+  </si>
+  <si>
+    <t>Bolalar  nevrologiyasi -24</t>
+  </si>
+  <si>
+    <t>Bolalar va o‘smir qizlar ginekologiyasi</t>
+  </si>
+  <si>
+    <t>Bolalar va o‘smir qizlar-24</t>
+  </si>
+  <si>
+    <t>Bolalar xirurgiyasi</t>
+  </si>
+  <si>
+    <t>Bolalar xirurgiyasi-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dermatovenerologiya </t>
+  </si>
+  <si>
+    <t>Dermatovenerologiya -24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epidemiologiya </t>
+  </si>
+  <si>
+    <t>Epidemiologiya -24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ftiziatriya </t>
+  </si>
+  <si>
+    <t>Ftiziatriya -24</t>
+  </si>
+  <si>
+    <t>Ichki kasalliklar terapiya</t>
+  </si>
+  <si>
+    <t>Ichki kasalliklar terapiya-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laboratoriya ishi </t>
+  </si>
+  <si>
+    <t>Laboratoriya ishi -24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mehnat gigiyenasi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mehnat gigiyenasi-24 </t>
+  </si>
+  <si>
+    <t>Narkologiya</t>
+  </si>
+  <si>
+    <t>Narkologiya-24</t>
+  </si>
+  <si>
+    <t>Nefrologiya gemodializ bilan</t>
+  </si>
+  <si>
+    <t>Nefrologiya gemodializ bilan-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neonatologiya </t>
+  </si>
+  <si>
+    <t>Neonatologiya-24</t>
+  </si>
+  <si>
+    <t>Nevrologiya</t>
+  </si>
+  <si>
+    <t>Nevrologiya-24</t>
+  </si>
+  <si>
+    <t>Neyroxirurgiya</t>
+  </si>
+  <si>
+    <t>Neyroxirurgiya-24</t>
+  </si>
+  <si>
+    <t>Nutrisiologiya</t>
+  </si>
+  <si>
+    <t>Nutrisiologiya-24</t>
+  </si>
+  <si>
+    <t>Oftamologiya</t>
+  </si>
+  <si>
+    <t>Oftamologiya-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Otorinolaringologiya </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Otorinolaringologiya-24 </t>
+  </si>
+  <si>
+    <t>Patologik anatomiya-24</t>
+  </si>
+  <si>
+    <t>Psixiatriya</t>
+  </si>
+  <si>
+    <t>Psixiatriya-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pulmonologiya </t>
+  </si>
+  <si>
+    <t>Pulmonologiya -24</t>
+  </si>
+  <si>
+    <t>Revmatologiya</t>
+  </si>
+  <si>
+    <t>Revmatologiya-24</t>
+  </si>
+  <si>
+    <t>Stomatologiya-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Terapevtik stomatologiya </t>
+  </si>
+  <si>
+    <t>Terapevtik stomatologiya -24</t>
+  </si>
+  <si>
+    <t>Terapiya-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tibbiy psixologiya </t>
+  </si>
+  <si>
+    <t>Tibbiy psixologiya -24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Travmatologiya va ortopediya </t>
+  </si>
+  <si>
+    <t>Travmatologiya va ortopediya-24</t>
+  </si>
+  <si>
+    <t>Tibbiy radiologiya</t>
+  </si>
+  <si>
+    <t>Tibbiy radiologiya-24</t>
+  </si>
+  <si>
+    <t>Umumiy onkologiya -24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Umumiy Xirurgiya  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Umumiy Xirurgiya -24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Urologiya </t>
+  </si>
+  <si>
+    <t>Urologiya -24</t>
+  </si>
+  <si>
+    <t>Yuqimli kasalliklar</t>
+  </si>
+  <si>
+    <t>Yuqimli kasalliklar-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yuz jag‘ jarroxligi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yuz jag‘ jarroxligi-24 </t>
+  </si>
+  <si>
+    <t>Kommunal gigiena</t>
+  </si>
+  <si>
+    <t>Kommunal gigiena-24</t>
+  </si>
+  <si>
+    <t>Akusherlik va ginekologiya-23</t>
+  </si>
+  <si>
+    <t>Allergologiya-23</t>
+  </si>
+  <si>
+    <t>Anesteziologiya-23</t>
+  </si>
+  <si>
+    <t>Bolalar anesteziologiya-23</t>
+  </si>
+  <si>
+    <t>Bolalar kardiorevmatalogiyasi -23</t>
+  </si>
+  <si>
+    <t>Bolalar  nefrologiyasi-23</t>
+  </si>
+  <si>
+    <t>Bolalar  nevrologiyasi -23</t>
+  </si>
+  <si>
+    <t>Bolalar va o‘smir qizlar-23</t>
+  </si>
+  <si>
+    <t>Bolalar xirurgiyasi-23</t>
+  </si>
+  <si>
+    <t>Dermatovenerologiya -23</t>
+  </si>
+  <si>
+    <t>Epidemiologiya -23</t>
+  </si>
+  <si>
+    <t>Ftiziatriya -23</t>
+  </si>
+  <si>
+    <t>Gigiyena-23</t>
+  </si>
+  <si>
+    <t>Ichki kasalliklar terapiya-23</t>
+  </si>
+  <si>
+    <t>Kardiologiya-23</t>
+  </si>
+  <si>
+    <t>Laboratoriya ishi -23</t>
+  </si>
+  <si>
+    <t>Mehnat gigiyenasi-23</t>
+  </si>
+  <si>
+    <t>Narkologiya-23</t>
+  </si>
+  <si>
+    <t>Nefrologiya gemodializ bilan-23</t>
+  </si>
+  <si>
+    <t>Neonatologiya-23</t>
+  </si>
+  <si>
+    <t>Nevrologiya-23</t>
+  </si>
+  <si>
+    <t>Neyroxirurgiya-23</t>
+  </si>
+  <si>
+    <t>Nutrisiologiya-23</t>
+  </si>
+  <si>
+    <t>Oftamologiya-23</t>
+  </si>
+  <si>
+    <t>Otorinolaringologiya-23</t>
+  </si>
+  <si>
+    <t>Patologik anatomiya-23</t>
+  </si>
+  <si>
+    <t>Pediatriya-23</t>
+  </si>
+  <si>
+    <t>Psixiatriya-23</t>
+  </si>
+  <si>
+    <t>Pulmonologiya -23</t>
+  </si>
+  <si>
+    <t>Revmatologiya-23</t>
+  </si>
+  <si>
+    <t>Stomatologiya-23</t>
+  </si>
+  <si>
+    <t>Terapevtik stomatologiya -23</t>
+  </si>
+  <si>
+    <t>Tibbiy psixologiya -23</t>
+  </si>
+  <si>
+    <t>Travmatologiya va ortopediya-23</t>
+  </si>
+  <si>
+    <t>Tibbiy radiologiya-23</t>
+  </si>
+  <si>
+    <t>Umumiy onkologiya -23</t>
+  </si>
+  <si>
+    <t>Umumiy Xirurgiya -23</t>
+  </si>
+  <si>
+    <t>Urologiya -23</t>
+  </si>
+  <si>
+    <t>Yuqimli kasalliklar-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yuz jag‘ jarroxligi-23 </t>
+  </si>
+  <si>
+    <t>Kommunal gigiena-23</t>
+  </si>
+  <si>
+    <t>Neyroxirurgiya-22</t>
+  </si>
+  <si>
     <t>Gigiena</t>
   </si>
   <si>
     <t>Gigiena-24</t>
   </si>
   <si>
-    <t>Morfologiya</t>
-  </si>
-  <si>
-    <t>Morfologiya-24</t>
-  </si>
-  <si>
-    <t>Morfologiya-23</t>
-  </si>
-  <si>
-    <t>Endokrinologiya</t>
-  </si>
-  <si>
-    <t>Endokrinologiya-24</t>
-  </si>
-  <si>
-    <t>Endokrinologiya-23</t>
-  </si>
-  <si>
-    <t>Akusherlik va ginekologiya</t>
-  </si>
-  <si>
-    <t>Akusherlik-23</t>
-  </si>
-  <si>
-    <t>Terapiya</t>
-  </si>
-  <si>
-    <t>Terapiya-23</t>
-  </si>
-  <si>
-    <t>Xirurgiya</t>
-  </si>
-  <si>
-    <t>Xirurgiya-22</t>
-  </si>
-  <si>
-    <t>Kardiologiya</t>
-  </si>
-  <si>
-    <t>Kardiologiya-24</t>
-  </si>
-  <si>
-    <t>Patologik anatomiya</t>
-  </si>
-  <si>
-    <t>Patan-23</t>
-  </si>
-  <si>
-    <t>Pediatriya-24</t>
-  </si>
-  <si>
-    <t>Rentgent texnikasi va texnologiyasi</t>
-  </si>
-  <si>
-    <t>Rentgent-24</t>
-  </si>
-  <si>
-    <t>Sog‘liqni saqlashni boshqarish va jamoat sog‘lig‘ini saqlash</t>
-  </si>
-  <si>
-    <t>Sog‘liqni saqlash-24</t>
-  </si>
-  <si>
     <t>Sog‘liqni saqlashni boshqарish ва jamoat sog‘lig‘ini saqlash</t>
   </si>
   <si>
-    <t>JSS-23</t>
-  </si>
-  <si>
-    <t>Tibbiy-biologik apparatlar, tizimlar va majmualar</t>
-  </si>
-  <si>
-    <t>Tibbiy-biologik apparatlar-24</t>
-  </si>
-  <si>
-    <t>Umumiy onkologiya</t>
-  </si>
-  <si>
-    <t>Onkologiya-23</t>
-  </si>
-  <si>
-    <t>Onkologiya-22 (kechki)</t>
-  </si>
-  <si>
-    <t>Ordinatura</t>
-  </si>
-  <si>
-    <t>Akusherlik va ginekologiya-24</t>
-  </si>
-  <si>
-    <t>Allergologiya va klinik immunologiya</t>
-  </si>
-  <si>
-    <t>Allergologiya-24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anesteziologiya va reanimatologiya  </t>
-  </si>
-  <si>
-    <t>Anesteziologiya-24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bolalar anesteziologiya va reanimatologiya </t>
-  </si>
-  <si>
-    <t>Bolalar anesteziologiya-24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bolalar kardiorevmatalogiyasi </t>
-  </si>
-  <si>
-    <t>Bolalar kardiorevmatalogiyasi -24</t>
-  </si>
-  <si>
-    <t>Bolalar  nefrologiyasi</t>
-  </si>
-  <si>
-    <t>Bolalar  nefrologiyasi-24</t>
-  </si>
-  <si>
-    <t>Bolalar  nevrologiyasi</t>
-  </si>
-  <si>
-    <t>Bolalar  nevrologiyasi -24</t>
-  </si>
-  <si>
-    <t>Bolalar va o‘smir qizlar ginekologiyasi</t>
-  </si>
-  <si>
-    <t>Bolalar va o‘smir qizlar-24</t>
-  </si>
-  <si>
-    <t>Bolalar xirurgiyasi</t>
-  </si>
-  <si>
-    <t>Bolalar xirurgiyasi-24</t>
-  </si>
-  <si>
     <t xml:space="preserve">Dermatoveneralogiya </t>
   </si>
   <si>
     <t>Dermatoveneralogiya -24</t>
   </si>
   <si>
-    <t xml:space="preserve">Epidemiologiya </t>
-  </si>
-  <si>
-    <t>Epidemiologiya -24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ftiziatriya </t>
-  </si>
-  <si>
-    <t>Ftiziatriya -24</t>
-  </si>
-  <si>
-    <t>Gigiyena</t>
-  </si>
-  <si>
-    <t>Gigiyena-24</t>
-  </si>
-  <si>
-    <t>Ichki kasalliklar terapiya</t>
-  </si>
-  <si>
-    <t>Ichki kasalliklar terapiya-24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kardiologiya </t>
-  </si>
-  <si>
-    <t>Kardiologiya -24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Laboratoria ishi </t>
-  </si>
-  <si>
-    <t>Laboratoria ishi -24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mehnat gigiyenasi </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mehnat gigiyenasi-24 </t>
-  </si>
-  <si>
-    <t>Narkologiya</t>
-  </si>
-  <si>
-    <t>Narkologiya-24</t>
-  </si>
-  <si>
-    <t>Nefrologiya gemodializ bilan</t>
-  </si>
-  <si>
-    <t>Nefrologiya gemodializ bilan-24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Neonatologiya </t>
-  </si>
-  <si>
-    <t>Neonatologiya-24</t>
-  </si>
-  <si>
-    <t>Nevrologiya</t>
-  </si>
-  <si>
-    <t>Nevrologiya-24</t>
-  </si>
-  <si>
-    <t>Neyroxirurgiya</t>
-  </si>
-  <si>
-    <t>Neyroxirurgiya-24</t>
-  </si>
-  <si>
-    <t>Nutrisiologiya</t>
-  </si>
-  <si>
-    <t>Nutrisiologiya-24</t>
-  </si>
-  <si>
-    <t>Oftamologiya</t>
-  </si>
-  <si>
-    <t>Oftamologiya-24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Otorinolaringologiya </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Otorinolaringologiya-24 </t>
-  </si>
-  <si>
-    <t>Patologik anatomiya-24</t>
-  </si>
-  <si>
-    <t>Psixiatriya</t>
-  </si>
-  <si>
-    <t>Psixiatriya-24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pulmonologiya </t>
-  </si>
-  <si>
-    <t>Pulmonologiya -24</t>
-  </si>
-  <si>
-    <t>Revmatologiya</t>
-  </si>
-  <si>
-    <t>Revmatologiya-24</t>
+    <t xml:space="preserve">Kadiologiya </t>
+  </si>
+  <si>
+    <t>Kadiologiya -24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Labaratoriya ishi </t>
+  </si>
+  <si>
+    <t>Labaratoriya ishi -24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mexnat gigiyenasi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mexnat gigiyenasi-24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patologik anatomiya </t>
+  </si>
+  <si>
+    <t>Patologik anatomiya -24</t>
   </si>
   <si>
     <t xml:space="preserve">Stomatologiya </t>
   </si>
   <si>
-    <t>Stomatologiya-24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Terapevtik stomatologiya </t>
-  </si>
-  <si>
-    <t>Terapevtik stomatologiya -24</t>
-  </si>
-  <si>
     <t xml:space="preserve">Terapiya </t>
   </si>
   <si>
-    <t>Terapiya-24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tibbiy psixologiya </t>
-  </si>
-  <si>
-    <t>Tibbiy psixologiya -24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Travmatologiya va ortopediya </t>
-  </si>
-  <si>
-    <t>Travmatologiya va ortopediya-24</t>
-  </si>
-  <si>
-    <t>Tibbiy radiologiya</t>
-  </si>
-  <si>
-    <t>Tibbiy radiologiya-24</t>
-  </si>
-  <si>
-    <t>Umumiy onkologiya -24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Umumiy Xirurgiya  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Umumiy Xirurgiya -24 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Urologiya </t>
-  </si>
-  <si>
-    <t>Urologiya -24</t>
-  </si>
-  <si>
-    <t>Yuqimli kasalliklar</t>
-  </si>
-  <si>
-    <t>Yuqimli kasalliklar-24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yuz jag‘ jarroxligi </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yuz jag‘ jarroxligi-24 </t>
-  </si>
-  <si>
     <t xml:space="preserve">Kommunal gigiena </t>
   </si>
   <si>
     <t>Kommunal gigiena -24</t>
   </si>
   <si>
-    <t>Akusherlik va ginekologiya-23</t>
-  </si>
-  <si>
-    <t>Allergologiya-23</t>
-  </si>
-  <si>
-    <t>Anesteziologiya-23</t>
-  </si>
-  <si>
-    <t>Bolalar anesteziologiya-23</t>
-  </si>
-  <si>
-    <t>Bolalar kardiorevmatalogiyasi -23</t>
-  </si>
-  <si>
-    <t>Bolalar  nefrologiyasi-23</t>
-  </si>
-  <si>
-    <t>Bolalar  nevrologiyasi -23</t>
-  </si>
-  <si>
-    <t>Bolalar va o‘smir qizlar-23</t>
-  </si>
-  <si>
-    <t>Bolalar xirurgiyasi-23</t>
-  </si>
-  <si>
     <t>Dermatoveneralogiya -23</t>
   </si>
   <si>
-    <t>Epidemiologiya -23</t>
-  </si>
-  <si>
-    <t>Ftiziatriya -23</t>
-  </si>
-  <si>
-    <t>Gigiyena-23</t>
-  </si>
-  <si>
-    <t>Ichki kasalliklar terapiya-23</t>
-  </si>
-  <si>
-    <t>Kardiologiya -23</t>
-  </si>
-  <si>
-    <t>Laboratoria ishi -23</t>
-  </si>
-  <si>
-    <t>Mehnat gigiyenasi-23</t>
-  </si>
-  <si>
-    <t>Narkologiya-23</t>
-  </si>
-  <si>
-    <t>Nefrologiya gemodializ bilan-23</t>
-  </si>
-  <si>
-    <t>Neonatologiya-23</t>
-  </si>
-  <si>
-    <t>Nevrologiya-23</t>
-  </si>
-  <si>
-    <t>Neyroxirurgiya-23</t>
-  </si>
-  <si>
-    <t>Nutrisiologiya-23</t>
-  </si>
-  <si>
-    <t>Oftamologiya-23</t>
-  </si>
-  <si>
-    <t>Otorinolaringologiya-23</t>
-  </si>
-  <si>
-    <t>Patologik anatomiya-23</t>
-  </si>
-  <si>
-    <t>Pediatriya-23</t>
-  </si>
-  <si>
-    <t>Psixiatriya-23</t>
-  </si>
-  <si>
-    <t>Pulmonologiya -23</t>
-  </si>
-  <si>
-    <t>Revmatologiya-23</t>
-  </si>
-  <si>
-    <t>Stomatologiya-23</t>
-  </si>
-  <si>
-    <t>Terapevtik stomatologiya -23</t>
+    <t>Kadiologiya -23</t>
+  </si>
+  <si>
+    <t>Labaratoriya ishi -23</t>
+  </si>
+  <si>
+    <t>Mexnat gigiyenasi-23</t>
+  </si>
+  <si>
+    <t>Patologik anatomiya -23</t>
   </si>
   <si>
     <t>Terapiya -23</t>
-  </si>
-  <si>
-    <t>Tibbiy psixologiya -23</t>
-  </si>
-  <si>
-    <t>Travmatologiya va ortopediya-23</t>
-  </si>
-  <si>
-    <t>Tibbiy radiologiya-23</t>
-  </si>
-  <si>
-    <t>Umumiy onkologiya -23</t>
-  </si>
-  <si>
-    <t>Umumiy Xirurgiya -23</t>
-  </si>
-  <si>
-    <t>Urologiya -23</t>
-  </si>
-  <si>
-    <t>Yuqimli kasalliklar-23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yuz jag‘ jarroxligi-23 </t>
-  </si>
-  <si>
-    <t>Kommunal gigiena</t>
-  </si>
-  <si>
-    <t>Kommunal gigiena-23</t>
-  </si>
-  <si>
-    <t>Neyroxirurgiya-22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kadiologiya </t>
-  </si>
-  <si>
-    <t>Kadiologiya -24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Labaratoriya ishi </t>
-  </si>
-  <si>
-    <t>Labaratoriya ishi -24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mexnat gigiyenasi </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mexnat gigiyenasi-24 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Patologik anatomiya </t>
-  </si>
-  <si>
-    <t>Patologik anatomiya -24</t>
-  </si>
-  <si>
-    <t>Kadiologiya -23</t>
-  </si>
-  <si>
-    <t>Labaratoriya ishi -23</t>
-  </si>
-  <si>
-    <t>Mexnat gigiyenasi-23</t>
-  </si>
-  <si>
-    <t>Patologik anatomiya -23</t>
   </si>
 </sst>
 </file>
@@ -2874,8 +2880,8 @@
   <sheetPr/>
   <dimension ref="A1:E506"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A436" workbookViewId="0">
-      <selection activeCell="C436" sqref="C436"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -9950,13 +9956,13 @@
         <v>346</v>
       </c>
       <c r="C416" s="10" t="s">
+        <v>368</v>
+      </c>
+      <c r="D416" s="8">
+        <v>2</v>
+      </c>
+      <c r="E416" s="49" t="s">
         <v>370</v>
-      </c>
-      <c r="D416" s="8">
-        <v>2</v>
-      </c>
-      <c r="E416" s="49" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="417" ht="18" spans="1:5">
@@ -9967,13 +9973,13 @@
         <v>346</v>
       </c>
       <c r="C417" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="D417" s="8">
+        <v>1</v>
+      </c>
+      <c r="E417" s="49" t="s">
         <v>372</v>
-      </c>
-      <c r="D417" s="8">
-        <v>1</v>
-      </c>
-      <c r="E417" s="49" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="418" ht="18" spans="1:5">
@@ -9984,13 +9990,13 @@
         <v>346</v>
       </c>
       <c r="C418" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="D418" s="8">
+        <v>2</v>
+      </c>
+      <c r="E418" s="49" t="s">
         <v>374</v>
-      </c>
-      <c r="D418" s="8">
-        <v>2</v>
-      </c>
-      <c r="E418" s="49" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="419" ht="18" spans="1:5">
@@ -10001,21 +10007,21 @@
         <v>346</v>
       </c>
       <c r="C419" s="7" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D419" s="8">
         <v>2</v>
       </c>
       <c r="E419" s="49" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="420" ht="18" spans="1:5">
       <c r="A420" s="36" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C420" s="2" t="s">
         <v>355</v>
@@ -10024,168 +10030,168 @@
         <v>1</v>
       </c>
       <c r="E420" s="50" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="421" ht="18" spans="1:5">
       <c r="A421" s="36" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C421" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="D421" s="2">
+        <v>1</v>
+      </c>
+      <c r="E421" s="50" t="s">
         <v>379</v>
-      </c>
-      <c r="D421" s="2">
-        <v>1</v>
-      </c>
-      <c r="E421" s="50" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="422" ht="18" spans="1:5">
       <c r="A422" s="36" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C422" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="D422" s="2">
+        <v>1</v>
+      </c>
+      <c r="E422" s="50" t="s">
         <v>381</v>
-      </c>
-      <c r="D422" s="2">
-        <v>1</v>
-      </c>
-      <c r="E422" s="50" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="423" ht="18" spans="1:5">
       <c r="A423" s="36" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C423" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="D423" s="2">
+        <v>1</v>
+      </c>
+      <c r="E423" s="51" t="s">
         <v>383</v>
-      </c>
-      <c r="D423" s="2">
-        <v>1</v>
-      </c>
-      <c r="E423" s="51" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="424" ht="18" spans="1:5">
       <c r="A424" s="36" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C424" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="D424" s="2">
+        <v>1</v>
+      </c>
+      <c r="E424" s="50" t="s">
         <v>385</v>
-      </c>
-      <c r="D424" s="2">
-        <v>1</v>
-      </c>
-      <c r="E424" s="50" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="425" ht="18" spans="1:5">
       <c r="A425" s="36" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B425" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C425" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="D425" s="2">
+        <v>1</v>
+      </c>
+      <c r="E425" s="51" t="s">
         <v>387</v>
-      </c>
-      <c r="D425" s="2">
-        <v>1</v>
-      </c>
-      <c r="E425" s="51" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="426" ht="18" spans="1:5">
       <c r="A426" s="36" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C426" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="D426" s="2">
+        <v>1</v>
+      </c>
+      <c r="E426" s="51" t="s">
         <v>389</v>
-      </c>
-      <c r="D426" s="2">
-        <v>1</v>
-      </c>
-      <c r="E426" s="51" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="427" ht="18" spans="1:5">
       <c r="A427" s="36" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C427" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="D427" s="2">
+        <v>1</v>
+      </c>
+      <c r="E427" s="51" t="s">
         <v>391</v>
-      </c>
-      <c r="D427" s="2">
-        <v>1</v>
-      </c>
-      <c r="E427" s="51" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="428" ht="18" spans="1:5">
       <c r="A428" s="36" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C428" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="D428" s="2">
+        <v>1</v>
+      </c>
+      <c r="E428" s="52" t="s">
         <v>393</v>
-      </c>
-      <c r="D428" s="2">
-        <v>1</v>
-      </c>
-      <c r="E428" s="52" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="429" ht="18" spans="1:5">
       <c r="A429" s="36" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B429" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C429" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="D429" s="2">
+        <v>1</v>
+      </c>
+      <c r="E429" s="50" t="s">
         <v>395</v>
-      </c>
-      <c r="D429" s="2">
-        <v>1</v>
-      </c>
-      <c r="E429" s="50" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="430" ht="18" spans="1:5">
       <c r="A430" s="36" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B430" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C430" s="2" t="s">
         <v>352</v>
@@ -10199,265 +10205,265 @@
     </row>
     <row r="431" ht="18" spans="1:5">
       <c r="A431" s="36" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B431" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C431" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="D431" s="2">
+        <v>1</v>
+      </c>
+      <c r="E431" s="50" t="s">
         <v>397</v>
-      </c>
-      <c r="D431" s="2">
-        <v>1</v>
-      </c>
-      <c r="E431" s="50" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="432" ht="18" spans="1:5">
       <c r="A432" s="36" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B432" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C432" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="D432" s="2">
+        <v>1</v>
+      </c>
+      <c r="E432" s="50" t="s">
         <v>399</v>
-      </c>
-      <c r="D432" s="2">
-        <v>1</v>
-      </c>
-      <c r="E432" s="50" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="433" ht="18" spans="1:5">
       <c r="A433" s="36" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B433" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C433" s="2" t="s">
-        <v>401</v>
+        <v>347</v>
       </c>
       <c r="D433" s="2">
         <v>1</v>
       </c>
       <c r="E433" s="50" t="s">
-        <v>402</v>
+        <v>348</v>
       </c>
     </row>
     <row r="434" ht="18" spans="1:5">
       <c r="A434" s="36" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B434" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C434" s="2" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D434" s="2">
         <v>1</v>
       </c>
       <c r="E434" s="51" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="435" ht="18" spans="1:5">
       <c r="A435" s="36" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B435" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C435" s="2" t="s">
-        <v>405</v>
+        <v>361</v>
       </c>
       <c r="D435" s="2">
         <v>1</v>
       </c>
       <c r="E435" s="50" t="s">
-        <v>406</v>
+        <v>362</v>
       </c>
     </row>
     <row r="436" ht="18" spans="1:5">
       <c r="A436" s="36" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B436" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C436" s="2" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="D436" s="2">
         <v>1</v>
       </c>
       <c r="E436" s="52" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
     </row>
     <row r="437" ht="18" spans="1:5">
       <c r="A437" s="36" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B437" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C437" s="2" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="D437" s="2">
         <v>1</v>
       </c>
       <c r="E437" s="52" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
     </row>
     <row r="438" ht="18" spans="1:5">
       <c r="A438" s="36" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B438" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C438" s="2" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="D438" s="2">
         <v>1</v>
       </c>
       <c r="E438" s="52" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
     </row>
     <row r="439" ht="18" spans="1:5">
       <c r="A439" s="36" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B439" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C439" s="2" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="D439" s="2">
         <v>1</v>
       </c>
       <c r="E439" s="51" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
     </row>
     <row r="440" ht="18" spans="1:5">
       <c r="A440" s="36" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B440" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C440" s="2" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="D440" s="2">
         <v>1</v>
       </c>
       <c r="E440" s="52" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
     </row>
     <row r="441" ht="18" spans="1:5">
       <c r="A441" s="36" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B441" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C441" s="2" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="D441" s="2">
         <v>1</v>
       </c>
       <c r="E441" s="52" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
     </row>
     <row r="442" ht="18" spans="1:5">
       <c r="A442" s="36" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C442" s="2" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="D442" s="2">
         <v>1</v>
       </c>
       <c r="E442" s="51" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
     </row>
     <row r="443" ht="18" spans="1:5">
       <c r="A443" s="36" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B443" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C443" s="2" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="D443" s="2">
         <v>1</v>
       </c>
       <c r="E443" s="51" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
     </row>
     <row r="444" ht="18" spans="1:5">
       <c r="A444" s="36" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B444" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C444" s="2" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="D444" s="2">
         <v>1</v>
       </c>
       <c r="E444" s="52" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
     </row>
     <row r="445" ht="18" spans="1:5">
       <c r="A445" s="36" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B445" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C445" s="2" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="D445" s="2">
         <v>1</v>
       </c>
       <c r="E445" s="52" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
     </row>
     <row r="446" ht="18" spans="1:5">
       <c r="A446" s="36" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B446" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C446" s="2" t="s">
         <v>363</v>
@@ -10466,15 +10472,15 @@
         <v>1</v>
       </c>
       <c r="E446" s="52" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
     </row>
     <row r="447" ht="18" spans="1:5">
       <c r="A447" s="36" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B447" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C447" s="2" t="s">
         <v>5</v>
@@ -10488,265 +10494,265 @@
     </row>
     <row r="448" ht="18" spans="1:5">
       <c r="A448" s="36" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B448" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C448" s="2" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="D448" s="2">
         <v>1</v>
       </c>
       <c r="E448" s="52" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
     </row>
     <row r="449" ht="18" spans="1:5">
       <c r="A449" s="36" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B449" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C449" s="2" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="D449" s="2">
         <v>1</v>
       </c>
       <c r="E449" s="52" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
     </row>
     <row r="450" ht="18" spans="1:5">
       <c r="A450" s="36" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B450" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C450" s="2" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="D450" s="2">
         <v>1</v>
       </c>
       <c r="E450" s="52" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="451" ht="18" spans="1:5">
       <c r="A451" s="36" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B451" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C451" s="2" t="s">
-        <v>434</v>
+        <v>9</v>
       </c>
       <c r="D451" s="2">
         <v>1</v>
       </c>
       <c r="E451" s="51" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
     </row>
     <row r="452" ht="18" spans="1:5">
       <c r="A452" s="36" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B452" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C452" s="2" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="D452" s="2">
         <v>1</v>
       </c>
       <c r="E452" s="52" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
     </row>
     <row r="453" ht="18" spans="1:5">
       <c r="A453" s="36" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B453" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C453" s="2" t="s">
-        <v>438</v>
+        <v>357</v>
       </c>
       <c r="D453" s="2">
         <v>1</v>
       </c>
       <c r="E453" s="52" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
     </row>
     <row r="454" ht="18" spans="1:5">
       <c r="A454" s="36" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B454" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C454" s="2" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="D454" s="2">
         <v>1</v>
       </c>
       <c r="E454" s="52" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="455" ht="18" spans="1:5">
       <c r="A455" s="36" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B455" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C455" s="2" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="D455" s="2">
         <v>1</v>
       </c>
       <c r="E455" s="52" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
     </row>
     <row r="456" ht="18" spans="1:5">
       <c r="A456" s="36" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B456" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C456" s="2" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="D456" s="2">
         <v>1</v>
       </c>
       <c r="E456" s="52" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
     </row>
     <row r="457" ht="18" spans="1:5">
       <c r="A457" s="36" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B457" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C457" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D457" s="2">
         <v>1</v>
       </c>
       <c r="E457" s="52" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
     </row>
     <row r="458" ht="18" spans="1:5">
       <c r="A458" s="36" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B458" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C458" s="2" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="D458" s="2">
         <v>1</v>
       </c>
       <c r="E458" s="52" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
     </row>
     <row r="459" ht="18" spans="1:5">
       <c r="A459" s="36" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B459" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C459" s="2" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="D459" s="2">
         <v>1</v>
       </c>
       <c r="E459" s="52" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
     </row>
     <row r="460" ht="18" spans="1:5">
       <c r="A460" s="36" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B460" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C460" s="2" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="D460" s="2">
         <v>1</v>
       </c>
       <c r="E460" s="52" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
     </row>
     <row r="461" ht="18" spans="1:5">
       <c r="A461" s="36" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B461" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C461" s="2" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="D461" s="2">
         <v>1</v>
       </c>
       <c r="E461" s="52" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
     </row>
     <row r="462" ht="18" spans="1:5">
       <c r="A462" s="36" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B462" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C462" s="2" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="D462" s="2">
         <v>1</v>
       </c>
       <c r="E462" s="51" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
     </row>
     <row r="463" ht="18" spans="1:5">
       <c r="A463" s="36" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B463" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C463" s="2" t="s">
         <v>355</v>
@@ -10755,168 +10761,168 @@
         <v>2</v>
       </c>
       <c r="E463" s="50" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
     </row>
     <row r="464" ht="18" spans="1:5">
       <c r="A464" s="36" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B464" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C464" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D464" s="2">
         <v>2</v>
       </c>
       <c r="E464" s="50" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
     </row>
     <row r="465" ht="18" spans="1:5">
       <c r="A465" s="36" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B465" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C465" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D465" s="2">
         <v>2</v>
       </c>
       <c r="E465" s="50" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
     </row>
     <row r="466" ht="18" spans="1:5">
       <c r="A466" s="36" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B466" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C466" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D466" s="2">
         <v>2</v>
       </c>
       <c r="E466" s="51" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
     </row>
     <row r="467" ht="18" spans="1:5">
       <c r="A467" s="36" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B467" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C467" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D467" s="2">
         <v>2</v>
       </c>
       <c r="E467" s="50" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
     </row>
     <row r="468" ht="18" spans="1:5">
       <c r="A468" s="36" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B468" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C468" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D468" s="2">
         <v>2</v>
       </c>
       <c r="E468" s="51" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
     </row>
     <row r="469" ht="18" spans="1:5">
       <c r="A469" s="36" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B469" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C469" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D469" s="2">
         <v>2</v>
       </c>
       <c r="E469" s="51" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
     </row>
     <row r="470" ht="18" spans="1:5">
       <c r="A470" s="36" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B470" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C470" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D470" s="2">
         <v>2</v>
       </c>
       <c r="E470" s="51" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
     </row>
     <row r="471" ht="18" spans="1:5">
       <c r="A471" s="36" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B471" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C471" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D471" s="2">
         <v>2</v>
       </c>
       <c r="E471" s="52" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
     </row>
     <row r="472" ht="18" spans="1:5">
       <c r="A472" s="36" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B472" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C472" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D472" s="2">
         <v>2</v>
       </c>
       <c r="E472" s="50" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
     </row>
     <row r="473" ht="18" spans="1:5">
       <c r="A473" s="36" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B473" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C473" s="2" t="s">
         <v>352</v>
@@ -10930,265 +10936,265 @@
     </row>
     <row r="474" ht="18" spans="1:5">
       <c r="A474" s="36" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B474" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C474" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D474" s="2">
         <v>2</v>
       </c>
       <c r="E474" s="50" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
     </row>
     <row r="475" ht="18" spans="1:5">
       <c r="A475" s="36" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B475" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C475" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D475" s="2">
         <v>2</v>
       </c>
       <c r="E475" s="50" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
     </row>
     <row r="476" ht="18" spans="1:5">
       <c r="A476" s="36" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B476" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C476" s="2" t="s">
-        <v>401</v>
+        <v>347</v>
       </c>
       <c r="D476" s="2">
         <v>2</v>
       </c>
       <c r="E476" s="50" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
     </row>
     <row r="477" ht="18" spans="1:5">
       <c r="A477" s="36" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B477" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C477" s="2" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D477" s="2">
         <v>2</v>
       </c>
       <c r="E477" s="51" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
     </row>
     <row r="478" ht="18" spans="1:5">
       <c r="A478" s="36" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B478" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C478" s="2" t="s">
-        <v>405</v>
+        <v>361</v>
       </c>
       <c r="D478" s="2">
         <v>2</v>
       </c>
       <c r="E478" s="50" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
     </row>
     <row r="479" ht="18" spans="1:5">
       <c r="A479" s="36" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B479" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C479" s="2" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="D479" s="2">
         <v>2</v>
       </c>
       <c r="E479" s="52" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
     </row>
     <row r="480" ht="18" spans="1:5">
       <c r="A480" s="36" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B480" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C480" s="2" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="D480" s="2">
         <v>2</v>
       </c>
       <c r="E480" s="52" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
     </row>
     <row r="481" ht="18" spans="1:5">
       <c r="A481" s="36" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B481" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C481" s="2" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="D481" s="2">
         <v>2</v>
       </c>
       <c r="E481" s="52" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
     </row>
     <row r="482" ht="18" spans="1:5">
       <c r="A482" s="36" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B482" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C482" s="2" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="D482" s="2">
         <v>2</v>
       </c>
       <c r="E482" s="51" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
     </row>
     <row r="483" ht="18" spans="1:5">
       <c r="A483" s="36" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B483" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C483" s="2" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="D483" s="2">
         <v>2</v>
       </c>
       <c r="E483" s="52" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
     </row>
     <row r="484" ht="18" spans="1:5">
       <c r="A484" s="36" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B484" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C484" s="2" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="D484" s="2">
         <v>2</v>
       </c>
       <c r="E484" s="52" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
     </row>
     <row r="485" ht="18" spans="1:5">
       <c r="A485" s="36" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B485" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C485" s="2" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="D485" s="2">
         <v>2</v>
       </c>
       <c r="E485" s="51" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
     </row>
     <row r="486" ht="18" spans="1:5">
       <c r="A486" s="36" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B486" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C486" s="2" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="D486" s="2">
         <v>2</v>
       </c>
       <c r="E486" s="51" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
     </row>
     <row r="487" ht="18" spans="1:5">
       <c r="A487" s="36" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B487" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C487" s="2" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="D487" s="2">
         <v>2</v>
       </c>
       <c r="E487" s="52" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
     </row>
     <row r="488" ht="18" spans="1:5">
       <c r="A488" s="36" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B488" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C488" s="2" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="D488" s="2">
         <v>2</v>
       </c>
       <c r="E488" s="52" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
     </row>
     <row r="489" ht="18" spans="1:5">
       <c r="A489" s="36" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B489" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C489" s="2" t="s">
         <v>363</v>
@@ -11197,15 +11203,15 @@
         <v>2</v>
       </c>
       <c r="E489" s="52" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
     </row>
     <row r="490" ht="18" spans="1:5">
       <c r="A490" s="36" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B490" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C490" s="2" t="s">
         <v>5</v>
@@ -11214,279 +11220,279 @@
         <v>2</v>
       </c>
       <c r="E490" s="52" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
     </row>
     <row r="491" ht="18" spans="1:5">
       <c r="A491" s="36" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B491" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C491" s="2" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="D491" s="2">
         <v>2</v>
       </c>
       <c r="E491" s="52" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
     </row>
     <row r="492" ht="18" spans="1:5">
       <c r="A492" s="36" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B492" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C492" s="2" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="D492" s="2">
         <v>2</v>
       </c>
       <c r="E492" s="52" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
     </row>
     <row r="493" ht="18" spans="1:5">
       <c r="A493" s="36" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B493" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C493" s="2" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="D493" s="2">
         <v>2</v>
       </c>
       <c r="E493" s="52" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
     </row>
     <row r="494" ht="18" spans="1:5">
       <c r="A494" s="36" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B494" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C494" s="2" t="s">
-        <v>434</v>
+        <v>9</v>
       </c>
       <c r="D494" s="2">
         <v>2</v>
       </c>
       <c r="E494" s="51" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
     </row>
     <row r="495" ht="18" spans="1:5">
       <c r="A495" s="36" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B495" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C495" s="2" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="D495" s="2">
         <v>2</v>
       </c>
       <c r="E495" s="52" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
     </row>
     <row r="496" ht="18" spans="1:5">
       <c r="A496" s="36" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B496" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C496" s="2" t="s">
-        <v>438</v>
+        <v>357</v>
       </c>
       <c r="D496" s="2">
         <v>2</v>
       </c>
       <c r="E496" s="51" t="s">
-        <v>489</v>
+        <v>358</v>
       </c>
     </row>
     <row r="497" ht="18" spans="1:5">
       <c r="A497" s="36" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B497" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C497" s="2" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="D497" s="2">
         <v>2</v>
       </c>
       <c r="E497" s="51" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
     </row>
     <row r="498" ht="18" spans="1:5">
       <c r="A498" s="36" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B498" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C498" s="2" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="D498" s="2">
         <v>2</v>
       </c>
       <c r="E498" s="52" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
     </row>
     <row r="499" ht="18" spans="1:5">
       <c r="A499" s="36" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B499" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C499" s="2" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="D499" s="2">
         <v>2</v>
       </c>
       <c r="E499" s="52" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
     </row>
     <row r="500" ht="18" spans="1:5">
       <c r="A500" s="36" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B500" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C500" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D500" s="2">
         <v>2</v>
       </c>
       <c r="E500" s="52" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
     </row>
     <row r="501" ht="18" spans="1:5">
       <c r="A501" s="36" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B501" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C501" s="2" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="D501" s="2">
         <v>2</v>
       </c>
       <c r="E501" s="52" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
     </row>
     <row r="502" ht="18" spans="1:5">
       <c r="A502" s="36" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B502" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C502" s="2" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="D502" s="2">
         <v>2</v>
       </c>
       <c r="E502" s="52" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
     </row>
     <row r="503" ht="18" spans="1:5">
       <c r="A503" s="36" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B503" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C503" s="2" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="D503" s="2">
         <v>2</v>
       </c>
       <c r="E503" s="51" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
     </row>
     <row r="504" ht="18" spans="1:5">
       <c r="A504" s="36" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B504" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C504" s="2" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="D504" s="2">
         <v>2</v>
       </c>
       <c r="E504" s="52" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
     </row>
     <row r="505" ht="18" spans="1:5">
       <c r="A505" s="36" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B505" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C505" s="2" t="s">
-        <v>498</v>
+        <v>448</v>
       </c>
       <c r="D505" s="2">
         <v>2</v>
       </c>
       <c r="E505" s="54" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
     </row>
     <row r="506" ht="18.75" spans="1:5">
       <c r="A506" s="53" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B506" s="25" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C506" s="25" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="D506" s="25">
         <v>3</v>
       </c>
       <c r="E506" s="55" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
     </row>
   </sheetData>
@@ -17529,13 +17535,13 @@
         <v>346</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>347</v>
+        <v>492</v>
       </c>
       <c r="C2" s="8">
         <v>1</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>348</v>
+        <v>493</v>
       </c>
     </row>
     <row r="3" ht="18" spans="1:4">
@@ -17711,13 +17717,13 @@
         <v>346</v>
       </c>
       <c r="B15" s="10" t="s">
+        <v>494</v>
+      </c>
+      <c r="C15" s="8">
+        <v>2</v>
+      </c>
+      <c r="D15" s="9" t="s">
         <v>370</v>
-      </c>
-      <c r="C15" s="8">
-        <v>2</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="16" ht="18" spans="1:4">
@@ -17725,13 +17731,13 @@
         <v>346</v>
       </c>
       <c r="B16" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="C16" s="8">
+        <v>1</v>
+      </c>
+      <c r="D16" s="9" t="s">
         <v>372</v>
-      </c>
-      <c r="C16" s="8">
-        <v>1</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="17" ht="18" spans="1:4">
@@ -17739,13 +17745,13 @@
         <v>346</v>
       </c>
       <c r="B17" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="C17" s="8">
+        <v>2</v>
+      </c>
+      <c r="D17" s="9" t="s">
         <v>374</v>
-      </c>
-      <c r="C17" s="8">
-        <v>2</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="18" ht="18" spans="1:4">
@@ -17753,13 +17759,13 @@
         <v>346</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C18" s="8">
         <v>2</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
   </sheetData>
@@ -17800,7 +17806,7 @@
     </row>
     <row r="2" ht="18" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>355</v>
@@ -17809,138 +17815,138 @@
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="3" ht="18" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>379</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="4" ht="18" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>381</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="5" ht="18" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>383</v>
-      </c>
-      <c r="C5" s="2">
-        <v>1</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="6" ht="18" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>385</v>
-      </c>
-      <c r="C6" s="2">
-        <v>1</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="7" ht="18" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>387</v>
-      </c>
-      <c r="C7" s="2">
-        <v>1</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="8" ht="18" spans="1:4">
       <c r="A8" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>389</v>
-      </c>
-      <c r="C8" s="2">
-        <v>1</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="9" ht="18" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>391</v>
-      </c>
-      <c r="C9" s="2">
-        <v>1</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="10" ht="18" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>393</v>
-      </c>
-      <c r="C10" s="2">
-        <v>1</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="11" ht="18" spans="1:4">
       <c r="A11" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>395</v>
+        <v>495</v>
       </c>
       <c r="C11" s="2">
         <v>1</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>396</v>
+        <v>496</v>
       </c>
     </row>
     <row r="12" ht="18" spans="1:4">
       <c r="A12" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>352</v>
@@ -17954,231 +17960,231 @@
     </row>
     <row r="13" ht="18" spans="1:4">
       <c r="A13" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>397</v>
-      </c>
-      <c r="C13" s="2">
-        <v>1</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="14" ht="18" spans="1:4">
       <c r="A14" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>399</v>
-      </c>
-      <c r="C14" s="2">
-        <v>1</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="15" ht="18" spans="1:4">
       <c r="A15" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>401</v>
+        <v>347</v>
       </c>
       <c r="C15" s="2">
         <v>1</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>402</v>
+        <v>348</v>
       </c>
     </row>
     <row r="16" ht="18" spans="1:4">
       <c r="A16" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C16" s="2">
         <v>1</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="17" ht="18" spans="1:4">
       <c r="A17" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C17" s="2">
         <v>1</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
     </row>
     <row r="18" ht="18" spans="1:4">
       <c r="A18" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="C18" s="2">
         <v>1</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
     </row>
     <row r="19" ht="18" spans="1:4">
       <c r="A19" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="C19" s="2">
         <v>1</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
     </row>
     <row r="20" ht="18" spans="1:4">
       <c r="A20" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="C20" s="2">
         <v>1</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
     </row>
     <row r="21" ht="18" spans="1:4">
       <c r="A21" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="C21" s="2">
         <v>1</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
     </row>
     <row r="22" ht="18" spans="1:4">
       <c r="A22" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="C22" s="2">
         <v>1</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
     </row>
     <row r="23" ht="18" spans="1:4">
       <c r="A23" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="C23" s="2">
         <v>1</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
     </row>
     <row r="24" ht="18" spans="1:4">
       <c r="A24" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="C24" s="2">
         <v>1</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
     </row>
     <row r="25" ht="18" spans="1:4">
       <c r="A25" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="C25" s="2">
         <v>1</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
     </row>
     <row r="26" ht="18" spans="1:4">
       <c r="A26" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="C26" s="2">
         <v>1</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
     </row>
     <row r="27" ht="18" spans="1:4">
       <c r="A27" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="C27" s="2">
         <v>1</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
     </row>
     <row r="28" ht="18" spans="1:4">
       <c r="A28" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="C28" s="2">
         <v>1</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
     </row>
     <row r="29" ht="18" spans="1:4">
       <c r="A29" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>5</v>
@@ -18192,217 +18198,217 @@
     </row>
     <row r="30" ht="18" spans="1:4">
       <c r="A30" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="C30" s="2">
         <v>1</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
     </row>
     <row r="31" ht="18" spans="1:4">
       <c r="A31" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="C31" s="2">
         <v>1</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
     </row>
     <row r="32" ht="18" spans="1:4">
       <c r="A32" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="C32" s="2">
         <v>1</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="33" ht="18" spans="1:4">
       <c r="A33" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>434</v>
+        <v>505</v>
       </c>
       <c r="C33" s="2">
         <v>1</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
     </row>
     <row r="34" ht="18" spans="1:4">
       <c r="A34" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="C34" s="2">
         <v>1</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
     </row>
     <row r="35" ht="18" spans="1:4">
       <c r="A35" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>438</v>
+        <v>506</v>
       </c>
       <c r="C35" s="2">
         <v>1</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
     </row>
     <row r="36" ht="18" spans="1:4">
       <c r="A36" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="C36" s="2">
         <v>1</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="37" ht="18" spans="1:4">
       <c r="A37" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="C37" s="2">
         <v>1</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
     </row>
     <row r="38" ht="18" spans="1:4">
       <c r="A38" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="C38" s="2">
         <v>1</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
     </row>
     <row r="39" ht="18" spans="1:4">
       <c r="A39" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C39" s="2">
         <v>1</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
     </row>
     <row r="40" ht="18" spans="1:4">
       <c r="A40" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="C40" s="2">
         <v>1</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
     </row>
     <row r="41" ht="18" spans="1:4">
       <c r="A41" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="C41" s="2">
         <v>1</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
     </row>
     <row r="42" ht="18" spans="1:4">
       <c r="A42" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="C42" s="2">
         <v>1</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
     </row>
     <row r="43" ht="18" spans="1:4">
       <c r="A43" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="C43" s="2">
         <v>1</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
     </row>
     <row r="44" ht="18" spans="1:4">
       <c r="A44" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>455</v>
+        <v>507</v>
       </c>
       <c r="C44" s="2">
         <v>1</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>456</v>
+        <v>508</v>
       </c>
     </row>
     <row r="45" ht="18" spans="1:4">
       <c r="A45" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>355</v>
@@ -18411,138 +18417,138 @@
         <v>2</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
     </row>
     <row r="46" ht="18" spans="1:4">
       <c r="A46" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C46" s="2">
         <v>2</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
     </row>
     <row r="47" ht="18" spans="1:4">
       <c r="A47" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C47" s="2">
         <v>2</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
     </row>
     <row r="48" ht="18" spans="1:4">
       <c r="A48" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C48" s="2">
         <v>2</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
     </row>
     <row r="49" ht="18" spans="1:4">
       <c r="A49" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C49" s="2">
         <v>2</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
     </row>
     <row r="50" ht="18" spans="1:4">
       <c r="A50" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C50" s="2">
         <v>2</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
     </row>
     <row r="51" ht="18" spans="1:4">
       <c r="A51" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C51" s="2">
         <v>2</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
     </row>
     <row r="52" ht="18" spans="1:4">
       <c r="A52" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C52" s="2">
         <v>2</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
     </row>
     <row r="53" ht="18" spans="1:4">
       <c r="A53" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C53" s="2">
         <v>2</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
     </row>
     <row r="54" ht="18" spans="1:4">
       <c r="A54" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>395</v>
+        <v>495</v>
       </c>
       <c r="C54" s="2">
         <v>2</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>466</v>
+        <v>509</v>
       </c>
     </row>
     <row r="55" ht="18" spans="1:4">
       <c r="A55" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>352</v>
@@ -18556,231 +18562,231 @@
     </row>
     <row r="56" ht="18" spans="1:4">
       <c r="A56" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C56" s="2">
         <v>2</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
     </row>
     <row r="57" ht="18" spans="1:4">
       <c r="A57" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C57" s="2">
         <v>2</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
     </row>
     <row r="58" ht="18" spans="1:4">
       <c r="A58" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>401</v>
+        <v>347</v>
       </c>
       <c r="C58" s="2">
         <v>2</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
     </row>
     <row r="59" ht="18" spans="1:4">
       <c r="A59" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C59" s="2">
         <v>2</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
     </row>
     <row r="60" ht="18" spans="1:4">
       <c r="A60" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C60" s="2">
         <v>2</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="61" ht="18" spans="1:4">
       <c r="A61" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="C61" s="2">
         <v>2</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="62" ht="18" spans="1:4">
       <c r="A62" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="C62" s="2">
         <v>2</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="63" ht="18" spans="1:4">
       <c r="A63" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="C63" s="2">
         <v>2</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
     </row>
     <row r="64" ht="18" spans="1:4">
       <c r="A64" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="C64" s="2">
         <v>2</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
     </row>
     <row r="65" ht="18" spans="1:4">
       <c r="A65" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="C65" s="2">
         <v>2</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
     </row>
     <row r="66" ht="18" spans="1:4">
       <c r="A66" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="C66" s="2">
         <v>2</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
     </row>
     <row r="67" ht="18" spans="1:4">
       <c r="A67" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="C67" s="2">
         <v>2</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
     </row>
     <row r="68" ht="18" spans="1:4">
       <c r="A68" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="C68" s="2">
         <v>2</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
     </row>
     <row r="69" ht="18" spans="1:4">
       <c r="A69" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="C69" s="2">
         <v>2</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
     </row>
     <row r="70" ht="18" spans="1:4">
       <c r="A70" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="C70" s="2">
         <v>2</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
     </row>
     <row r="71" ht="18" spans="1:4">
       <c r="A71" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="C71" s="2">
         <v>2</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="72" ht="18" spans="1:4">
       <c r="A72" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>5</v>
@@ -18789,231 +18795,231 @@
         <v>2</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
     </row>
     <row r="73" ht="18" spans="1:4">
       <c r="A73" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="C73" s="2">
         <v>2</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
     </row>
     <row r="74" ht="18" spans="1:4">
       <c r="A74" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="C74" s="2">
         <v>2</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
     </row>
     <row r="75" ht="18" spans="1:4">
       <c r="A75" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="C75" s="2">
         <v>2</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
     </row>
     <row r="76" ht="18" spans="1:4">
       <c r="A76" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>434</v>
+        <v>505</v>
       </c>
       <c r="C76" s="2">
         <v>2</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
     </row>
     <row r="77" ht="18" spans="1:4">
       <c r="A77" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="C77" s="2">
         <v>2</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
     </row>
     <row r="78" ht="18" spans="1:4">
       <c r="A78" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>438</v>
+        <v>506</v>
       </c>
       <c r="C78" s="2">
         <v>2</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>489</v>
+        <v>514</v>
       </c>
     </row>
     <row r="79" ht="18" spans="1:4">
       <c r="A79" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="C79" s="2">
         <v>2</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
     </row>
     <row r="80" ht="18" spans="1:4">
       <c r="A80" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="C80" s="2">
         <v>2</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
     </row>
     <row r="81" ht="18" spans="1:4">
       <c r="A81" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="C81" s="2">
         <v>2</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
     </row>
     <row r="82" ht="18" spans="1:4">
       <c r="A82" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C82" s="2">
         <v>2</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
     </row>
     <row r="83" ht="18" spans="1:4">
       <c r="A83" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="C83" s="2">
         <v>2</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
     </row>
     <row r="84" ht="18" spans="1:4">
       <c r="A84" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="C84" s="2">
         <v>2</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
     </row>
     <row r="85" ht="18" spans="1:4">
       <c r="A85" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="C85" s="2">
         <v>2</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
     </row>
     <row r="86" ht="18" spans="1:4">
       <c r="A86" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="C86" s="2">
         <v>2</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
     </row>
     <row r="87" ht="18" spans="1:4">
       <c r="A87" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>498</v>
+        <v>448</v>
       </c>
       <c r="C87" s="2">
         <v>2</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
     </row>
     <row r="88" ht="18" spans="1:4">
       <c r="A88" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="C88" s="2">
         <v>3</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
     </row>
   </sheetData>

--- a/admin/media/data/Guruhlar.xlsx
+++ b/admin/media/data/Guruhlar.xlsx
@@ -2880,8 +2880,8 @@
   <sheetPr/>
   <dimension ref="A1:E506"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A302" workbookViewId="0">
+      <selection activeCell="C314" sqref="C314"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
